--- a/mySQL_Create/datagroups.xlsx
+++ b/mySQL_Create/datagroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t>Column name</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -752,18 +755,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
@@ -805,7 +809,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -815,14 +819,16 @@
       <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -832,14 +838,14 @@
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -849,7 +855,7 @@
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E5" s="11"/>
@@ -858,7 +864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -868,14 +874,14 @@
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -885,14 +891,14 @@
       <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -902,14 +908,14 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>25</v>
       </c>
@@ -919,14 +925,14 @@
       <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>27</v>
       </c>
@@ -936,14 +942,14 @@
       <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
@@ -953,14 +959,14 @@
       <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
@@ -970,14 +976,14 @@
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>33</v>
       </c>
@@ -987,14 +993,14 @@
       <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1004,14 +1010,14 @@
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>37</v>
       </c>
@@ -1021,14 +1027,14 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>39</v>
       </c>
@@ -1038,14 +1044,14 @@
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>41</v>
       </c>
@@ -1055,14 +1061,14 @@
       <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>43</v>
       </c>
@@ -1072,14 +1078,14 @@
       <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>45</v>
       </c>
@@ -1089,14 +1095,14 @@
       <c r="C19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>48</v>
       </c>
@@ -1106,14 +1112,14 @@
       <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>50</v>
       </c>
@@ -1123,14 +1129,14 @@
       <c r="C21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>52</v>
       </c>
@@ -1140,14 +1146,14 @@
       <c r="C22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>54</v>
       </c>
@@ -1157,7 +1163,7 @@
       <c r="C23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E23" s="9"/>
@@ -1166,7 +1172,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>57</v>
       </c>
@@ -1176,7 +1182,7 @@
       <c r="C24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E24" s="9"/>
@@ -1185,7 +1191,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>60</v>
       </c>
@@ -1195,14 +1201,14 @@
       <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>62</v>
       </c>
@@ -1212,14 +1218,14 @@
       <c r="C26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>64</v>
       </c>
@@ -1229,14 +1235,14 @@
       <c r="C27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>66</v>
       </c>
@@ -1246,14 +1252,14 @@
       <c r="C28" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>68</v>
       </c>
@@ -1263,14 +1269,14 @@
       <c r="C29" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>70</v>
       </c>
@@ -1280,7 +1286,7 @@
       <c r="C30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E30" s="9"/>
@@ -1289,7 +1295,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>73</v>
       </c>
@@ -1299,14 +1305,14 @@
       <c r="C31" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>75</v>
       </c>
@@ -1316,14 +1322,14 @@
       <c r="C32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>76</v>
       </c>

--- a/mySQL_Create/datagroups.xlsx
+++ b/mySQL_Create/datagroups.xlsx
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
